--- a/4.simulasi fungsi mutasi.xlsx
+++ b/4.simulasi fungsi mutasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Algoritma_Genetika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71537983-0348-49E8-B932-A31BB4B3E648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47ADAE5-76D5-4058-B5E0-11F61230F409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2952" windowWidth="17280" windowHeight="8964" xr2:uid="{2EEADA67-A05B-418A-835F-7ABD28A44209}"/>
+    <workbookView xWindow="-684" yWindow="972" windowWidth="17280" windowHeight="8964" xr2:uid="{2EEADA67-A05B-418A-835F-7ABD28A44209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Chitato</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>C1</t>
+  </si>
+  <si>
+    <t>INDIVIDU4</t>
+  </si>
+  <si>
+    <t>individu terpilih</t>
   </si>
 </sst>
 </file>
@@ -197,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +222,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -296,12 +308,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -315,39 +368,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,11 +376,59 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -677,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FF293F-BEFB-451D-8955-36ECA399A3C5}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29:V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,50 +757,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="7" t="s">
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="22"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
@@ -813,10 +881,10 @@
       <c r="N4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -824,48 +892,48 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="13">
         <f ca="1">RANDBETWEEN(0, 1)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9">
+      <c r="C5" s="12"/>
+      <c r="D5" s="13">
         <f t="shared" ref="D5:D6" ca="1" si="0">RANDBETWEEN(0, 1)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9">
+      <c r="E5" s="12"/>
+      <c r="F5" s="13">
         <f t="shared" ref="F5:F6" ca="1" si="1">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13">
         <f t="shared" ref="H5:H6" ca="1" si="2">RANDBETWEEN(0, 1)</f>
         <v>1</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="11">
         <f t="shared" ref="J5:J6" ca="1" si="3">RANDBETWEEN(0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="12"/>
       <c r="L5">
         <f ca="1">SUMPRODUCT(B5:K5)</f>
         <v>2</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ref="M5:M10" ca="1" si="4">SUM(IF(B5=1,$C$4,0),IF(D5=1,$E$4,0),IF(F5=1,$G$4,0),IF(H5=1,$I$4,0),IF(J5=1,$K$4,0))</f>
-        <v>132900</v>
+        <v>141900</v>
       </c>
       <c r="N5" t="str">
         <f ca="1">IF(M5&lt;=$C$14,"Fit","Not Fit")</f>
         <v>Fit</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="7">
         <f ca="1">RAND()</f>
-        <v>0.19597730210689124</v>
-      </c>
-      <c r="P5" s="18">
+        <v>0.56496489224926116</v>
+      </c>
+      <c r="P5" s="7">
         <f ca="1">IF(O5&lt;$C$16,1,0)</f>
         <v>1</v>
       </c>
@@ -874,48 +942,48 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="13">
         <f ca="1">RANDBETWEEN(0, 1)</f>
         <v>1</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9">
+      <c r="C6" s="12"/>
+      <c r="D6" s="13">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9">
+      <c r="E6" s="12"/>
+      <c r="F6" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="12"/>
       <c r="J6" s="11">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="12"/>
       <c r="L6">
         <f t="shared" ref="L6:L10" ca="1" si="5">SUMPRODUCT(B6:K6)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>170700</v>
+        <v>8900</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" ref="N6:N10" ca="1" si="6">IF(M6&lt;=$C$14,"Fit","Not Fit")</f>
-        <v>Not Fit</v>
-      </c>
-      <c r="O6" s="18">
+        <v>Fit</v>
+      </c>
+      <c r="O6" s="7">
         <f t="shared" ref="O6:O10" ca="1" si="7">RAND()</f>
-        <v>0.62621794568832689</v>
-      </c>
-      <c r="P6" s="18">
+        <v>0.40558945593004236</v>
+      </c>
+      <c r="P6" s="7">
         <f t="shared" ref="P6:P9" ca="1" si="8">IF(O6&lt;$C$16,1,0)</f>
         <v>1</v>
       </c>
@@ -924,48 +992,48 @@
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="13">
         <f t="shared" ref="B7:J10" ca="1" si="9">RANDBETWEEN(0, 1)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="12"/>
       <c r="J7" s="11">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="12"/>
       <c r="L7">
         <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>35800</v>
+        <v>119900</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Fit</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.96967200384564312</v>
-      </c>
-      <c r="P7" s="18">
+        <v>0.97913185798712898</v>
+      </c>
+      <c r="P7" s="7">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
@@ -974,48 +1042,48 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="9">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="23"/>
+      <c r="B8" s="13">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="14">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="15"/>
       <c r="J8" s="11">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="12"/>
       <c r="L8">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>35800</v>
+        <v>19900</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Fit</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.26283044261805999</v>
-      </c>
-      <c r="P8" s="18">
+        <v>4.0544211684826248E-2</v>
+      </c>
+      <c r="P8" s="7">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
@@ -1024,48 +1092,48 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="9">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="10"/>
+      <c r="B9" s="13">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="11">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="12"/>
       <c r="L9">
         <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>35800</v>
+        <v>37800</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Fit</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>7.2354300648588277E-3</v>
-      </c>
-      <c r="P9" s="18">
+        <v>0.73342403577728421</v>
+      </c>
+      <c r="P9" s="7">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
@@ -1074,54 +1142,54 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="18">
         <f ca="1">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18">
         <f ca="1">RANDBETWEEN(0, 1)</f>
         <v>1</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="16">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="17"/>
       <c r="L10">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>119900</v>
+        <v>177600</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Fit</v>
-      </c>
-      <c r="O10" s="18">
+        <v>Not Fit</v>
+      </c>
+      <c r="O10" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.43040264741839895</v>
-      </c>
-      <c r="P10" s="18">
+        <v>0.61846970929939338</v>
+      </c>
+      <c r="P10" s="7">
         <f t="shared" ref="P10" ca="1" si="10">IF(O10&lt;$C$16,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P11" s="18">
+      <c r="P11" s="7">
         <f ca="1">SUM(P5:P10)</f>
         <v>5</v>
       </c>
@@ -1149,59 +1217,59 @@
       <c r="G15" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="13">
         <f t="shared" ref="H15:P15" ca="1" si="11">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="9">
+      <c r="K15" s="12"/>
+      <c r="L15" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="22">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="15"/>
       <c r="P15" s="11">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="7">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="19" t="s">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="7">
         <f ca="1">COMBIN(P11,2)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="18" t="s">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="7">
         <f ca="1">RANDBETWEEN(0,4)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>38</v>
       </c>
@@ -1209,7 +1277,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>37</v>
       </c>
@@ -1222,71 +1290,191 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21">
         <f ca="1">RANDBETWEEN(0,5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>40</v>
       </c>
       <c r="C22">
         <f ca="1">RANDBETWEEN(0,4)</f>
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="25">
+        <v>0</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="25">
+        <v>0</v>
+      </c>
+      <c r="J26" s="26"/>
+      <c r="K26" s="25">
+        <v>1</v>
+      </c>
+      <c r="L26" s="26"/>
+      <c r="M26" s="25">
+        <v>0</v>
+      </c>
+      <c r="N26" s="26"/>
+      <c r="O26" s="25">
+        <v>0</v>
+      </c>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27">
+        <v>0</v>
+      </c>
+      <c r="R26" s="28"/>
+      <c r="S26" s="25">
+        <v>1</v>
+      </c>
+      <c r="T26" s="26"/>
+      <c r="U26" s="25">
+        <v>0</v>
+      </c>
+      <c r="V26" s="26"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="25">
+        <v>1</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="25">
+        <v>0</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="25">
+        <v>0</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="25">
+        <v>0</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="25">
+        <v>1</v>
+      </c>
+      <c r="L29" s="26"/>
+      <c r="M29" s="25">
+        <v>0</v>
+      </c>
+      <c r="N29" s="26"/>
+      <c r="O29" s="25">
+        <v>0</v>
+      </c>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="27">
+        <v>0</v>
+      </c>
+      <c r="R29" s="28"/>
+      <c r="S29" s="25">
+        <v>1</v>
+      </c>
+      <c r="T29" s="26"/>
+      <c r="U29" s="25">
+        <v>0</v>
+      </c>
+      <c r="V29" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="65">
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
